--- a/data/trans_dic/P0902-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1111083192001362</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1246237384098699</v>
+        <v>0.1246237384098698</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.08982821007038609</v>
@@ -697,7 +697,7 @@
         <v>0.09223946522356513</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0993589560171933</v>
+        <v>0.09935895601719329</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0499435804461742</v>
+        <v>0.05062330464432061</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03790050483983978</v>
+        <v>0.03868176654365161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05280028890050163</v>
+        <v>0.05161527722478485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05789682897336867</v>
+        <v>0.05728326519534341</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08167691683943316</v>
+        <v>0.08152501570023898</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0843682956721744</v>
+        <v>0.08723335897934954</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07706539163329845</v>
+        <v>0.07799920883825054</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1006055346703827</v>
+        <v>0.09703685857724559</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06913335399744018</v>
+        <v>0.07084784740065436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06514977328758662</v>
+        <v>0.06542421373801463</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07215071958922005</v>
+        <v>0.07149762083373362</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08221343740334645</v>
+        <v>0.08326776975284114</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09976268825545562</v>
+        <v>0.1000205845060815</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08616367367282264</v>
+        <v>0.08790093826959924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1075929369001411</v>
+        <v>0.1098821995221672</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1027895140224924</v>
+        <v>0.1033169373538689</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.155181447907625</v>
+        <v>0.1569999398494743</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1611517877669579</v>
+        <v>0.1666360417627412</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1563138660011674</v>
+        <v>0.1580842039514372</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1542241802966197</v>
+        <v>0.1497637295604261</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.10998446831125</v>
+        <v>0.1131315578560109</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1068720031149693</v>
+        <v>0.1072489989079835</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1187910721701767</v>
+        <v>0.1169308377463727</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1154171705501656</v>
+        <v>0.1156224436676673</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02971720861008512</v>
+        <v>0.03019081677609104</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07677768823177572</v>
+        <v>0.07335213422700677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03622854434673619</v>
+        <v>0.03558887330453685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06857591065625493</v>
+        <v>0.06453459970796775</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06554128122970815</v>
+        <v>0.06353657874446451</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07678265046518939</v>
+        <v>0.07509113089754678</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06378081807402131</v>
+        <v>0.06609702803001433</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1122174289681564</v>
+        <v>0.114147012927589</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05291438962453858</v>
+        <v>0.0530571054241674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08554064297427304</v>
+        <v>0.08454187193232535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05658402938527869</v>
+        <v>0.05649608302338567</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09392789121327384</v>
+        <v>0.09304960310142377</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07962275682063687</v>
+        <v>0.0801875398744836</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1434662653294237</v>
+        <v>0.1390204422346279</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08363625073798139</v>
+        <v>0.08322929637193921</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1156382819150956</v>
+        <v>0.1157561306469358</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1257039340669927</v>
+        <v>0.1231291124669121</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1473436197906613</v>
+        <v>0.1509294673517911</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1356878076060209</v>
+        <v>0.1322804871076386</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1692831403203806</v>
+        <v>0.1708771746984271</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09092279181723074</v>
+        <v>0.08983682229157218</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.132298505455868</v>
+        <v>0.1318265480759191</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09833016150788754</v>
+        <v>0.09815082551598578</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1322367759718049</v>
+        <v>0.1312965719672655</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1220923805622731</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.166677842292881</v>
+        <v>0.1666778422928811</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05565687180576587</v>
+        <v>0.05648947133023544</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1083891206323697</v>
+        <v>0.1073582497062029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06573205960252106</v>
+        <v>0.0687750896055927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1112228552245565</v>
+        <v>0.1116701278925844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1314428643673528</v>
+        <v>0.1351522612008072</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1465659346703385</v>
+        <v>0.1504944601476946</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.161282229639158</v>
+        <v>0.1610809649695751</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1767497916315233</v>
+        <v>0.1757928140020923</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08225273833293831</v>
+        <v>0.08102241889167043</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1258893553990071</v>
+        <v>0.1287213508723598</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09760486721616435</v>
+        <v>0.09858866768042081</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.141850788903348</v>
+        <v>0.1390975574991981</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09972967704186153</v>
+        <v>0.09949094083153119</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1715847922848226</v>
+        <v>0.1698138779173488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1166675663222508</v>
+        <v>0.1169236122108607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1757326976345689</v>
+        <v>0.1781320836559825</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2508344395133901</v>
+        <v>0.2524833871479319</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2469676201136204</v>
+        <v>0.246621652376955</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2975648270654751</v>
+        <v>0.2918916922771557</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2889968200592512</v>
+        <v>0.2814393127485166</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1250144105343802</v>
+        <v>0.1251140087569362</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1779079258018423</v>
+        <v>0.1790848249199998</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1476928982161324</v>
+        <v>0.1495814063371404</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1937309342068482</v>
+        <v>0.1942912582559986</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08590414064816919</v>
+        <v>0.08589561503245165</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1087615945750383</v>
+        <v>0.1108338558512144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09047879110460348</v>
+        <v>0.0897741046506212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1369174973066621</v>
+        <v>0.135563816050286</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09985552842760467</v>
+        <v>0.1008543253070198</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1269122515312998</v>
+        <v>0.1262171018854441</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1048702526134437</v>
+        <v>0.1058531236820827</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1428112250827745</v>
+        <v>0.1418472766644494</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09686352541121203</v>
+        <v>0.09624808261421226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1234533456968931</v>
+        <v>0.1226106662225546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.102004405591722</v>
+        <v>0.1016701092101256</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1459018032273353</v>
+        <v>0.1453815651717635</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1224886296615861</v>
+        <v>0.1199252718220718</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1502171604602405</v>
+        <v>0.1515071651577944</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1272907072412985</v>
+        <v>0.1264901847433307</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1825638456463189</v>
+        <v>0.1802865925042615</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1495888219545869</v>
+        <v>0.1506758256151418</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1817738482490953</v>
+        <v>0.182319740234281</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1552591491018121</v>
+        <v>0.1570539639630713</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1848550168373579</v>
+        <v>0.1833184239625507</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1253694796149877</v>
+        <v>0.1243104664751591</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1552862610755885</v>
+        <v>0.1547038613174152</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1324639516212102</v>
+        <v>0.1320160763253834</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1773450088789275</v>
+        <v>0.1752565247586904</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2318120062501811</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2582071135436028</v>
+        <v>0.2582071135436029</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1305044013200225</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07346929242874513</v>
+        <v>0.07486274157929446</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.094679954585699</v>
+        <v>0.09707032720065928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1102180482477883</v>
+        <v>0.109892246599894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1345054902056001</v>
+        <v>0.1323557853383804</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1163016214274998</v>
+        <v>0.1205335879590415</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2453785578738122</v>
+        <v>0.2447332269913829</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2000701895922297</v>
+        <v>0.203210684737673</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2349111161544076</v>
+        <v>0.2344033115360413</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.109601962181801</v>
+        <v>0.1090891503141695</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.192152919128715</v>
+        <v>0.1913224497306411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1660912171302408</v>
+        <v>0.1683751350659128</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2003519043558704</v>
+        <v>0.2005781419368937</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1361119207981567</v>
+        <v>0.1420237257958095</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.152905421173888</v>
+        <v>0.1532902287660095</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1643714870484392</v>
+        <v>0.1646216553499679</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1956645336338728</v>
+        <v>0.194260171840857</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1791272451173292</v>
+        <v>0.1815719786750586</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3111038772262283</v>
+        <v>0.309931591315713</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2654900266195376</v>
+        <v>0.266811085500279</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2845081579848686</v>
+        <v>0.2824048568028917</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1538842770656883</v>
+        <v>0.1529024825089612</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2392049450780095</v>
+        <v>0.2375309837376715</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2096347044655197</v>
+        <v>0.2113696509702088</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2394474529537346</v>
+        <v>0.2412263562844436</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0162032755404951</v>
+        <v>0.01711414949815069</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01854464640262409</v>
+        <v>0.01775965477739672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003768215340857439</v>
+        <v>0.003791949520680773</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01003550161984455</v>
+        <v>0.01103295455976071</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1551428022949904</v>
+        <v>0.1567582201809391</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2028175647605436</v>
+        <v>0.2071439290740846</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1930616351686762</v>
+        <v>0.1888903318607556</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2152580277336691</v>
+        <v>0.2166492961423206</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1315434333981629</v>
+        <v>0.1311757155843777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1696158158537864</v>
+        <v>0.1700642948250538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1522548129096888</v>
+        <v>0.1526566013168721</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1739537355134144</v>
+        <v>0.1732225837177183</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05634046470697292</v>
+        <v>0.05506537818832133</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06947262849136128</v>
+        <v>0.06641686440769494</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03947074132126553</v>
+        <v>0.04067429556267726</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04870029396164712</v>
+        <v>0.05173130528046237</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1966316876683611</v>
+        <v>0.2005693467942997</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.256046424588988</v>
+        <v>0.2576992998237456</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2437520934773094</v>
+        <v>0.2438080646901825</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2671945193439692</v>
+        <v>0.2666893089213834</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1694223317300478</v>
+        <v>0.166749368228468</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2134346240222265</v>
+        <v>0.2142173380382778</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1969466478799745</v>
+        <v>0.1982927800873832</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2153310259554222</v>
+        <v>0.2144508628062818</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07251467335052787</v>
+        <v>0.07285513667097869</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09960110866429185</v>
+        <v>0.09930577322141827</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08337424113450594</v>
+        <v>0.08296007072200814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1140898205662718</v>
+        <v>0.1141533838794132</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1337089532522338</v>
+        <v>0.1344874368009364</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1857001203603887</v>
+        <v>0.1844138120881571</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1630380337909846</v>
+        <v>0.1628590855596492</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1868672774459632</v>
+        <v>0.1865046378638125</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1070173475447268</v>
+        <v>0.1068711680087636</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1461756087665368</v>
+        <v>0.1466731590722621</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1271578767153859</v>
+        <v>0.1270825216038066</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.15443902479059</v>
+        <v>0.1548112094818909</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09170982663751594</v>
+        <v>0.09160794054605306</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1223028737408568</v>
+        <v>0.1214654720353949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1033852345576169</v>
+        <v>0.1037714594141939</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1368323868129637</v>
+        <v>0.1375326616354408</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1576551804508424</v>
+        <v>0.1584737269355714</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2126877661014813</v>
+        <v>0.211805672417643</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.191427577269905</v>
+        <v>0.1902445962447042</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2084777488420074</v>
+        <v>0.2090486736786276</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1216802247251748</v>
+        <v>0.122088089768008</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1640057716718702</v>
+        <v>0.1645060791726984</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1444627692288524</v>
+        <v>0.1440119810844101</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1705203346093528</v>
+        <v>0.170064827414364</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23662</v>
+        <v>23984</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16571</v>
+        <v>16912</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22656</v>
+        <v>22148</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>31879</v>
+        <v>31541</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25049</v>
+        <v>25002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26530</v>
+        <v>27431</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>26746</v>
+        <v>27070</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>49137</v>
+        <v>47394</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53956</v>
+        <v>55294</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>48971</v>
+        <v>49177</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56000</v>
+        <v>55493</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>85422</v>
+        <v>86518</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47265</v>
+        <v>47387</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37672</v>
+        <v>38431</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46167</v>
+        <v>47150</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56598</v>
+        <v>56888</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47591</v>
+        <v>48149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50675</v>
+        <v>52399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>54250</v>
+        <v>54864</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>75325</v>
+        <v>73146</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>85838</v>
+        <v>88294</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>80332</v>
+        <v>80615</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>92199</v>
+        <v>90756</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>119922</v>
+        <v>120135</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10904</v>
+        <v>11078</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>32154</v>
+        <v>30720</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13666</v>
+        <v>13425</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33137</v>
+        <v>31184</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24373</v>
+        <v>23627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25953</v>
+        <v>25382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23744</v>
+        <v>24606</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>47484</v>
+        <v>48301</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>39093</v>
+        <v>39199</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>64738</v>
+        <v>63982</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>42410</v>
+        <v>42344</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>85132</v>
+        <v>84336</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29216</v>
+        <v>29424</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60083</v>
+        <v>58221</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31550</v>
+        <v>31396</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>55878</v>
+        <v>55935</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>46745</v>
+        <v>45787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49804</v>
+        <v>51016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50513</v>
+        <v>49244</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>71631</v>
+        <v>72305</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>67174</v>
+        <v>66371</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>100125</v>
+        <v>99767</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>73698</v>
+        <v>73564</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>119853</v>
+        <v>119001</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30188</v>
+        <v>30639</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68122</v>
+        <v>67474</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34306</v>
+        <v>35895</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52399</v>
+        <v>52610</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22054</v>
+        <v>22676</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37846</v>
+        <v>38860</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26793</v>
+        <v>26759</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33140</v>
+        <v>32961</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>58414</v>
+        <v>57540</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>111627</v>
+        <v>114139</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>67156</v>
+        <v>67833</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>93425</v>
+        <v>91612</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54092</v>
+        <v>53963</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>107840</v>
+        <v>106727</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60890</v>
+        <v>61024</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>82791</v>
+        <v>83921</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>42086</v>
+        <v>42362</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>63771</v>
+        <v>63682</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>49432</v>
+        <v>48490</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54186</v>
+        <v>52769</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>88782</v>
+        <v>88852</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>157753</v>
+        <v>158796</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>101618</v>
+        <v>102917</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>127594</v>
+        <v>127963</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>106378</v>
+        <v>106367</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>126056</v>
+        <v>128457</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>104018</v>
+        <v>103208</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>154752</v>
+        <v>153222</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>71325</v>
+        <v>72039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>97298</v>
+        <v>96765</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>86610</v>
+        <v>87422</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>122908</v>
+        <v>122078</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>189138</v>
+        <v>187936</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>237730</v>
+        <v>236107</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>201511</v>
+        <v>200851</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>290474</v>
+        <v>289438</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>151682</v>
+        <v>148508</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>174103</v>
+        <v>175598</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>146338</v>
+        <v>145418</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>206344</v>
+        <v>203770</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>106849</v>
+        <v>107625</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>139358</v>
+        <v>139777</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>128225</v>
+        <v>129707</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>159092</v>
+        <v>157770</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>244799</v>
+        <v>242731</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>299030</v>
+        <v>297908</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>261684</v>
+        <v>260800</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>353074</v>
+        <v>348916</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25755</v>
+        <v>26244</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48343</v>
+        <v>49564</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>68413</v>
+        <v>68211</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76246</v>
+        <v>75027</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>66147</v>
+        <v>68554</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>186861</v>
+        <v>186370</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>147701</v>
+        <v>150019</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>194915</v>
+        <v>194494</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>100758</v>
+        <v>100286</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>244441</v>
+        <v>243385</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>225710</v>
+        <v>228813</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>279811</v>
+        <v>280127</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47715</v>
+        <v>49787</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>78073</v>
+        <v>78269</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>102026</v>
+        <v>102182</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>110914</v>
+        <v>110118</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>101879</v>
+        <v>103269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>236912</v>
+        <v>236020</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>195996</v>
+        <v>196972</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>236068</v>
+        <v>234323</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>141467</v>
+        <v>140564</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>304297</v>
+        <v>302167</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>284883</v>
+        <v>287241</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>334412</v>
+        <v>336897</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4832</v>
+        <v>5103</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4949</v>
+        <v>4740</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2381</v>
+        <v>2617</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>193736</v>
+        <v>195753</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>224584</v>
+        <v>229374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>208898</v>
+        <v>204384</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>181738</v>
+        <v>182913</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>203492</v>
+        <v>202924</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>233086</v>
+        <v>233702</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>208463</v>
+        <v>209013</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>188133</v>
+        <v>187342</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16801</v>
+        <v>16421</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18541</v>
+        <v>17725</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11334</v>
+        <v>11679</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11553</v>
+        <v>12272</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>245546</v>
+        <v>250463</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>283525</v>
+        <v>285355</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>263746</v>
+        <v>263806</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>225587</v>
+        <v>225161</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>262090</v>
+        <v>257955</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>293302</v>
+        <v>294377</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>269653</v>
+        <v>271497</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>232882</v>
+        <v>231931</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>237137</v>
+        <v>238250</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>340734</v>
+        <v>339724</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>282282</v>
+        <v>280880</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>392388</v>
+        <v>392607</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>451685</v>
+        <v>454315</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>658526</v>
+        <v>653965</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>575784</v>
+        <v>575152</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>679020</v>
+        <v>677703</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>711485</v>
+        <v>710513</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1018430</v>
+        <v>1021897</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>879591</v>
+        <v>879070</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1092346</v>
+        <v>1094979</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>299909</v>
+        <v>299575</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>418397</v>
+        <v>415532</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>350034</v>
+        <v>351341</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>470606</v>
+        <v>473015</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>532579</v>
+        <v>535344</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>754229</v>
+        <v>751101</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>676045</v>
+        <v>671867</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>757546</v>
+        <v>759621</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>808968</v>
+        <v>811680</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1142656</v>
+        <v>1146142</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>999295</v>
+        <v>996177</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1206089</v>
+        <v>1202868</v>
       </c>
     </row>
     <row r="32">
